--- a/Test Procedure/Symptom Checker/Anemia.xlsx
+++ b/Test Procedure/Symptom Checker/Anemia.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="1">
   <si>
     <t>Anemia</t>
-  </si>
-  <si>
-    <t>Pollen Allergy</t>
-  </si>
-  <si>
-    <t>Cold Sore</t>
-  </si>
-  <si>
-    <t>Conjunctivitis</t>
   </si>
 </sst>
 </file>
@@ -949,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -963,7 +954,7 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1047,7 +1038,7 @@
         <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1061,7 +1052,7 @@
         <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1145,7 +1136,7 @@
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1229,7 +1220,7 @@
         <v>68</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1453,7 +1444,7 @@
         <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1537,7 +1528,7 @@
         <v>68</v>
       </c>
       <c r="D98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1621,7 +1612,7 @@
         <v>68</v>
       </c>
       <c r="D104" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1915,7 +1906,7 @@
         <v>68</v>
       </c>
       <c r="D125" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2632,7 +2623,7 @@
         <v>27</v>
       </c>
       <c r="E176" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -2649,7 +2640,7 @@
         <v>28</v>
       </c>
       <c r="E177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -2717,7 +2708,7 @@
         <v>58</v>
       </c>
       <c r="E181" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -2734,7 +2725,7 @@
         <v>68</v>
       </c>
       <c r="E182" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -2751,7 +2742,7 @@
         <v>28</v>
       </c>
       <c r="E183" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -2819,7 +2810,7 @@
         <v>58</v>
       </c>
       <c r="E187" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -2836,7 +2827,7 @@
         <v>68</v>
       </c>
       <c r="E188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -2921,7 +2912,7 @@
         <v>68</v>
       </c>
       <c r="E193" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3091,7 +3082,7 @@
         <v>68</v>
       </c>
       <c r="E203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3108,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="E204" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3176,7 +3167,7 @@
         <v>58</v>
       </c>
       <c r="E208" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3193,7 +3184,7 @@
         <v>68</v>
       </c>
       <c r="E209" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3278,7 +3269,7 @@
         <v>68</v>
       </c>
       <c r="E214" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -3448,7 +3439,7 @@
         <v>68</v>
       </c>
       <c r="E224" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -3533,7 +3524,7 @@
         <v>68</v>
       </c>
       <c r="E229" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -3703,7 +3694,7 @@
         <v>68</v>
       </c>
       <c r="E239" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4060,7 +4051,7 @@
         <v>28</v>
       </c>
       <c r="E260" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4128,7 +4119,7 @@
         <v>58</v>
       </c>
       <c r="E264" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4145,7 +4136,7 @@
         <v>68</v>
       </c>
       <c r="E265" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4230,7 +4221,7 @@
         <v>68</v>
       </c>
       <c r="E270" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4400,7 +4391,7 @@
         <v>68</v>
       </c>
       <c r="E280" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -4485,7 +4476,7 @@
         <v>68</v>
       </c>
       <c r="E285" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -4655,7 +4646,7 @@
         <v>68</v>
       </c>
       <c r="E295" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5080,7 +5071,7 @@
         <v>68</v>
       </c>
       <c r="E320" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5250,7 +5241,7 @@
         <v>68</v>
       </c>
       <c r="E330" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6205,7 +6196,7 @@
         <v>28</v>
       </c>
       <c r="F386" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -6225,7 +6216,7 @@
         <v>31</v>
       </c>
       <c r="F387" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -6245,7 +6236,7 @@
         <v>34</v>
       </c>
       <c r="F388" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -6265,7 +6256,7 @@
         <v>45</v>
       </c>
       <c r="F389" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -6285,7 +6276,7 @@
         <v>58</v>
       </c>
       <c r="F390" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -6305,7 +6296,7 @@
         <v>68</v>
       </c>
       <c r="F391" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -6385,7 +6376,7 @@
         <v>58</v>
       </c>
       <c r="F395" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -6405,7 +6396,7 @@
         <v>68</v>
       </c>
       <c r="F396" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -6485,7 +6476,7 @@
         <v>68</v>
       </c>
       <c r="F400" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -6545,7 +6536,7 @@
         <v>68</v>
       </c>
       <c r="F403" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -6585,7 +6576,7 @@
         <v>68</v>
       </c>
       <c r="F405" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -6605,7 +6596,7 @@
         <v>68</v>
       </c>
       <c r="F406" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -6685,7 +6676,7 @@
         <v>58</v>
       </c>
       <c r="F410" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -6705,7 +6696,7 @@
         <v>68</v>
       </c>
       <c r="F411" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -6785,7 +6776,7 @@
         <v>68</v>
       </c>
       <c r="F415" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -6845,7 +6836,7 @@
         <v>68</v>
       </c>
       <c r="F418" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -6885,7 +6876,7 @@
         <v>68</v>
       </c>
       <c r="F420" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -6905,7 +6896,7 @@
         <v>68</v>
       </c>
       <c r="F421" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -7105,7 +7096,7 @@
         <v>68</v>
       </c>
       <c r="F431" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -7385,7 +7376,7 @@
         <v>58</v>
       </c>
       <c r="F445" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -7405,7 +7396,7 @@
         <v>68</v>
       </c>
       <c r="F446" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -7485,7 +7476,7 @@
         <v>68</v>
       </c>
       <c r="F450" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -7545,7 +7536,7 @@
         <v>68</v>
       </c>
       <c r="F453" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -7585,7 +7576,7 @@
         <v>68</v>
       </c>
       <c r="F455" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -7605,7 +7596,7 @@
         <v>68</v>
       </c>
       <c r="F456" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -7805,7 +7796,7 @@
         <v>68</v>
       </c>
       <c r="F466" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -8205,7 +8196,7 @@
         <v>68</v>
       </c>
       <c r="F486" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -8785,7 +8776,7 @@
         <v>58</v>
       </c>
       <c r="F515" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:6">
@@ -8805,7 +8796,7 @@
         <v>68</v>
       </c>
       <c r="F516" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -8885,7 +8876,7 @@
         <v>68</v>
       </c>
       <c r="F520" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -8945,7 +8936,7 @@
         <v>68</v>
       </c>
       <c r="F523" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -8985,7 +8976,7 @@
         <v>68</v>
       </c>
       <c r="F525" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -9005,7 +8996,7 @@
         <v>68</v>
       </c>
       <c r="F526" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -9205,7 +9196,7 @@
         <v>68</v>
       </c>
       <c r="F536" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -9605,7 +9596,7 @@
         <v>68</v>
       </c>
       <c r="F556" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -10305,7 +10296,7 @@
         <v>68</v>
       </c>
       <c r="F591" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -11248,7 +11239,7 @@
         <v>31</v>
       </c>
       <c r="G638" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -11271,7 +11262,7 @@
         <v>34</v>
       </c>
       <c r="G639" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -11294,7 +11285,7 @@
         <v>45</v>
       </c>
       <c r="G640" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -11317,7 +11308,7 @@
         <v>58</v>
       </c>
       <c r="G641" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:7">
@@ -11340,7 +11331,7 @@
         <v>68</v>
       </c>
       <c r="G642" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:7">
@@ -11409,7 +11400,7 @@
         <v>58</v>
       </c>
       <c r="G645" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -11432,7 +11423,7 @@
         <v>68</v>
       </c>
       <c r="G646" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -11478,7 +11469,7 @@
         <v>58</v>
       </c>
       <c r="G648" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:7">
@@ -11501,7 +11492,7 @@
         <v>68</v>
       </c>
       <c r="G649" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -11524,7 +11515,7 @@
         <v>58</v>
       </c>
       <c r="G650" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -11547,7 +11538,7 @@
         <v>68</v>
       </c>
       <c r="G651" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -11570,7 +11561,7 @@
         <v>68</v>
       </c>
       <c r="G652" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -11662,7 +11653,7 @@
         <v>68</v>
       </c>
       <c r="G656" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -11731,7 +11722,7 @@
         <v>68</v>
       </c>
       <c r="G659" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -11777,7 +11768,7 @@
         <v>68</v>
       </c>
       <c r="G661" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -11800,7 +11791,7 @@
         <v>68</v>
       </c>
       <c r="G662" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -11938,7 +11929,7 @@
         <v>68</v>
       </c>
       <c r="G668" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:7">
@@ -12007,7 +11998,7 @@
         <v>68</v>
       </c>
       <c r="G671" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -12030,7 +12021,7 @@
         <v>68</v>
       </c>
       <c r="G672" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:7">
@@ -12122,7 +12113,7 @@
         <v>68</v>
       </c>
       <c r="G676" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:7">
@@ -12191,7 +12182,7 @@
         <v>68</v>
       </c>
       <c r="G679" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -12237,7 +12228,7 @@
         <v>68</v>
       </c>
       <c r="G681" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:7">
@@ -12260,7 +12251,7 @@
         <v>68</v>
       </c>
       <c r="G682" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:7">
@@ -12398,7 +12389,7 @@
         <v>68</v>
       </c>
       <c r="G688" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:7">
@@ -12467,7 +12458,7 @@
         <v>68</v>
       </c>
       <c r="G691" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:7">
@@ -12490,7 +12481,7 @@
         <v>68</v>
       </c>
       <c r="G692" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:7">
@@ -12927,7 +12918,7 @@
         <v>68</v>
       </c>
       <c r="G711" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:7">
@@ -12996,7 +12987,7 @@
         <v>68</v>
       </c>
       <c r="G714" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:7">
@@ -13042,7 +13033,7 @@
         <v>68</v>
       </c>
       <c r="G716" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:7">
@@ -13065,7 +13056,7 @@
         <v>68</v>
       </c>
       <c r="G717" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:7">
@@ -13203,7 +13194,7 @@
         <v>68</v>
       </c>
       <c r="G723" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:7">
@@ -13272,7 +13263,7 @@
         <v>68</v>
       </c>
       <c r="G726" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:7">
@@ -13295,7 +13286,7 @@
         <v>68</v>
       </c>
       <c r="G727" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:7">
@@ -14215,7 +14206,7 @@
         <v>68</v>
       </c>
       <c r="G767" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:7">
@@ -14284,7 +14275,7 @@
         <v>68</v>
       </c>
       <c r="G770" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:7">
@@ -14330,7 +14321,7 @@
         <v>68</v>
       </c>
       <c r="G772" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:7">
@@ -14353,7 +14344,7 @@
         <v>68</v>
       </c>
       <c r="G773" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:7">
@@ -14491,7 +14482,7 @@
         <v>68</v>
       </c>
       <c r="G779" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:7">
@@ -14560,7 +14551,7 @@
         <v>68</v>
       </c>
       <c r="G782" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:7">
@@ -14583,7 +14574,7 @@
         <v>68</v>
       </c>
       <c r="G783" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:7">
@@ -16133,7 +16124,7 @@
         <v>58</v>
       </c>
       <c r="H850" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -16159,7 +16150,7 @@
         <v>68</v>
       </c>
       <c r="H851" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -16211,7 +16202,7 @@
         <v>58</v>
       </c>
       <c r="H853" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -16237,7 +16228,7 @@
         <v>68</v>
       </c>
       <c r="H854" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -16263,7 +16254,7 @@
         <v>58</v>
       </c>
       <c r="H855" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -16289,7 +16280,7 @@
         <v>68</v>
       </c>
       <c r="H856" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -16315,7 +16306,7 @@
         <v>68</v>
       </c>
       <c r="H857" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -16393,7 +16384,7 @@
         <v>68</v>
       </c>
       <c r="H860" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -16445,7 +16436,7 @@
         <v>68</v>
       </c>
       <c r="H862" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -16471,7 +16462,7 @@
         <v>68</v>
       </c>
       <c r="H863" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -16523,7 +16514,7 @@
         <v>68</v>
       </c>
       <c r="H865" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -16549,7 +16540,7 @@
         <v>68</v>
       </c>
       <c r="H866" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -16575,7 +16566,7 @@
         <v>68</v>
       </c>
       <c r="H867" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -16731,7 +16722,7 @@
         <v>68</v>
       </c>
       <c r="H873" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -16809,7 +16800,7 @@
         <v>68</v>
       </c>
       <c r="H876" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -16835,7 +16826,7 @@
         <v>68</v>
       </c>
       <c r="H877" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -17121,7 +17112,7 @@
         <v>68</v>
       </c>
       <c r="H888" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -17199,7 +17190,7 @@
         <v>68</v>
       </c>
       <c r="H891" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -17225,7 +17216,7 @@
         <v>68</v>
       </c>
       <c r="H892" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -17667,7 +17658,7 @@
         <v>68</v>
       </c>
       <c r="H909" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -17745,7 +17736,7 @@
         <v>68</v>
       </c>
       <c r="H912" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -17771,7 +17762,7 @@
         <v>68</v>
       </c>
       <c r="H913" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -18395,7 +18386,7 @@
         <v>68</v>
       </c>
       <c r="H937" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -18473,7 +18464,7 @@
         <v>68</v>
       </c>
       <c r="H940" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -18499,7 +18490,7 @@
         <v>68</v>
       </c>
       <c r="H941" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -19262,7 +19253,7 @@
         <v>68</v>
       </c>
       <c r="I970" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:9">
@@ -19320,7 +19311,7 @@
         <v>68</v>
       </c>
       <c r="I972" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:9">
@@ -19349,7 +19340,7 @@
         <v>68</v>
       </c>
       <c r="I973" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:9">
@@ -19407,7 +19398,7 @@
         <v>68</v>
       </c>
       <c r="I975" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:9">
@@ -19436,7 +19427,7 @@
         <v>68</v>
       </c>
       <c r="I976" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:9">
@@ -19465,7 +19456,7 @@
         <v>68</v>
       </c>
       <c r="I977" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:9">
@@ -19523,7 +19514,7 @@
         <v>68</v>
       </c>
       <c r="I979" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:9">
@@ -19552,7 +19543,7 @@
         <v>68</v>
       </c>
       <c r="I980" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:9">
@@ -19581,7 +19572,7 @@
         <v>68</v>
       </c>
       <c r="I981" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:9">
@@ -19610,7 +19601,7 @@
         <v>68</v>
       </c>
       <c r="I982" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:9">
@@ -20576,7 +20567,7 @@
         <v>68</v>
       </c>
       <c r="J1015" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:11">
@@ -20608,7 +20599,7 @@
         <v>68</v>
       </c>
       <c r="J1016" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:11">
@@ -20640,7 +20631,7 @@
         <v>68</v>
       </c>
       <c r="J1017" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:11">
@@ -20672,7 +20663,7 @@
         <v>68</v>
       </c>
       <c r="J1018" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:11">

--- a/Test Procedure/Symptom Checker/Anemia.xlsx
+++ b/Test Procedure/Symptom Checker/Anemia.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mason/Documents/Senior-Design-2-Electric-Boogaloo/Test Procedure/Symptom Checker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Anemia" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -22,8 +35,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,14 +65,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -106,12 +125,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -138,14 +157,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -172,6 +192,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -347,46 +368,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K1023"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>9</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2">
+        <f>COUNTIF(B:B, "Anemia")</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:P2" si="0">COUNTIF(C:C, "Anemia")</f>
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>SUM(E2:N2)</f>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3">
+        <f>COUNTIF(B:B, "*")</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:R3" si="1">COUNTIF(C:C, "*")</f>
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>SUM(E3:N3)</f>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="1">
+        <f>E2/E3</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:P4" si="2">F2/F3</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>28</v>
       </c>
@@ -394,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>31</v>
       </c>
@@ -402,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>34</v>
       </c>
@@ -410,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>45</v>
       </c>
@@ -418,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>58</v>
       </c>
@@ -426,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>68</v>
       </c>
@@ -434,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -445,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -456,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -467,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -478,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -489,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -500,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -511,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -522,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -533,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -544,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
@@ -555,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8</v>
       </c>
@@ -566,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8</v>
       </c>
@@ -577,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
@@ -588,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8</v>
       </c>
@@ -599,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8</v>
       </c>
@@ -610,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -621,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>12</v>
       </c>
@@ -632,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>12</v>
       </c>
@@ -643,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>12</v>
       </c>
@@ -654,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -665,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>12</v>
       </c>
@@ -676,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>12</v>
       </c>
@@ -687,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>12</v>
       </c>
@@ -698,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>27</v>
       </c>
@@ -709,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>27</v>
       </c>
@@ -720,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>27</v>
       </c>
@@ -731,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>27</v>
       </c>
@@ -742,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>27</v>
       </c>
@@ -753,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>27</v>
       </c>
@@ -764,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>28</v>
       </c>
@@ -775,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>28</v>
       </c>
@@ -786,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>28</v>
       </c>
@@ -797,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>28</v>
       </c>
@@ -808,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>28</v>
       </c>
@@ -819,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>31</v>
       </c>
@@ -830,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>31</v>
       </c>
@@ -841,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>31</v>
       </c>
@@ -852,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>31</v>
       </c>
@@ -863,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>34</v>
       </c>
@@ -874,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>34</v>
       </c>
@@ -885,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>34</v>
       </c>
@@ -896,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>45</v>
       </c>
@@ -907,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>45</v>
       </c>
@@ -918,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>58</v>
       </c>
@@ -929,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -943,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -957,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -971,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -985,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -999,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1013,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1027,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1041,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1055,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1069,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1083,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1097,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1111,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1125,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1139,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1153,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -1167,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3</v>
       </c>
@@ -1181,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1195,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -1209,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -1223,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -1237,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -1251,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -1265,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1279,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -1293,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -1307,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -1321,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -1335,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -1349,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -1363,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3</v>
       </c>
@@ -1377,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3</v>
       </c>
@@ -1391,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3</v>
       </c>
@@ -1405,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3</v>
       </c>
@@ -1419,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3</v>
       </c>
@@ -1433,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>8</v>
       </c>
@@ -1447,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8</v>
       </c>
@@ -1461,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8</v>
       </c>
@@ -1475,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8</v>
       </c>
@@ -1489,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8</v>
       </c>
@@ -1503,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -1517,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8</v>
       </c>
@@ -1531,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -1545,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8</v>
       </c>
@@ -1559,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>8</v>
       </c>
@@ -1573,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>8</v>
       </c>
@@ -1587,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8</v>
       </c>
@@ -1601,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>8</v>
       </c>
@@ -1615,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>8</v>
       </c>
@@ -1629,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>8</v>
       </c>
@@ -1643,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>8</v>
       </c>
@@ -1657,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>8</v>
       </c>
@@ -1671,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>8</v>
       </c>
@@ -1685,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>8</v>
       </c>
@@ -1699,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>8</v>
       </c>
@@ -1713,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>8</v>
       </c>
@@ -1727,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>8</v>
       </c>
@@ -1741,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>8</v>
       </c>
@@ -1755,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>8</v>
       </c>
@@ -1769,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>8</v>
       </c>
@@ -1783,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>8</v>
       </c>
@@ -1797,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>8</v>
       </c>
@@ -1811,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>8</v>
       </c>
@@ -1825,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>12</v>
       </c>
@@ -1839,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>12</v>
       </c>
@@ -1853,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>12</v>
       </c>
@@ -1867,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>12</v>
       </c>
@@ -1881,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>12</v>
       </c>
@@ -1895,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>12</v>
       </c>
@@ -1909,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>12</v>
       </c>
@@ -1923,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>12</v>
       </c>
@@ -1937,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>12</v>
       </c>
@@ -1951,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>12</v>
       </c>
@@ -1965,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>12</v>
       </c>
@@ -1979,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>12</v>
       </c>
@@ -1993,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>12</v>
       </c>
@@ -2007,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>12</v>
       </c>
@@ -2021,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>12</v>
       </c>
@@ -2035,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>12</v>
       </c>
@@ -2049,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>12</v>
       </c>
@@ -2063,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>12</v>
       </c>
@@ -2077,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>12</v>
       </c>
@@ -2091,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>12</v>
       </c>
@@ -2105,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>12</v>
       </c>
@@ -2119,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>27</v>
       </c>
@@ -2133,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>27</v>
       </c>
@@ -2147,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>27</v>
       </c>
@@ -2161,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>27</v>
       </c>
@@ -2175,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>27</v>
       </c>
@@ -2189,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>27</v>
       </c>
@@ -2203,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>27</v>
       </c>
@@ -2217,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>27</v>
       </c>
@@ -2231,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>27</v>
       </c>
@@ -2245,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>27</v>
       </c>
@@ -2259,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>27</v>
       </c>
@@ -2273,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>27</v>
       </c>
@@ -2287,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>27</v>
       </c>
@@ -2301,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>27</v>
       </c>
@@ -2315,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>27</v>
       </c>
@@ -2329,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>28</v>
       </c>
@@ -2343,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>28</v>
       </c>
@@ -2357,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>28</v>
       </c>
@@ -2371,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>28</v>
       </c>
@@ -2385,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>28</v>
       </c>
@@ -2399,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>28</v>
       </c>
@@ -2413,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>28</v>
       </c>
@@ -2427,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>28</v>
       </c>
@@ -2441,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>28</v>
       </c>
@@ -2455,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>28</v>
       </c>
@@ -2469,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>31</v>
       </c>
@@ -2483,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>31</v>
       </c>
@@ -2497,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>31</v>
       </c>
@@ -2511,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>31</v>
       </c>
@@ -2525,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>31</v>
       </c>
@@ -2539,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>31</v>
       </c>
@@ -2553,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>34</v>
       </c>
@@ -2567,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>34</v>
       </c>
@@ -2581,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>34</v>
       </c>
@@ -2595,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>45</v>
       </c>
@@ -2609,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>3</v>
       </c>
@@ -2626,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>3</v>
       </c>
@@ -2643,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>3</v>
       </c>
@@ -2660,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>3</v>
       </c>
@@ -2677,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3</v>
       </c>
@@ -2694,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>3</v>
       </c>
@@ -2711,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>3</v>
       </c>
@@ -2728,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>3</v>
       </c>
@@ -2745,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>3</v>
       </c>
@@ -2762,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>3</v>
       </c>
@@ -2779,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3</v>
       </c>
@@ -2796,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3</v>
       </c>
@@ -2813,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>3</v>
       </c>
@@ -2830,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>3</v>
       </c>
@@ -2847,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3</v>
       </c>
@@ -2864,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>3</v>
       </c>
@@ -2881,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>3</v>
       </c>
@@ -2898,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>3</v>
       </c>
@@ -2915,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>3</v>
       </c>
@@ -2932,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>3</v>
       </c>
@@ -2949,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>3</v>
       </c>
@@ -2966,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>3</v>
       </c>
@@ -2983,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>3</v>
       </c>
@@ -3000,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>3</v>
       </c>
@@ -3017,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>3</v>
       </c>
@@ -3034,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>3</v>
       </c>
@@ -3051,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3</v>
       </c>
@@ -3068,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3</v>
       </c>
@@ -3085,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>3</v>
       </c>
@@ -3102,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3</v>
       </c>
@@ -3119,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3</v>
       </c>
@@ -3136,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3</v>
       </c>
@@ -3153,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3</v>
       </c>
@@ -3170,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>3</v>
       </c>
@@ -3187,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3</v>
       </c>
@@ -3204,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>3</v>
       </c>
@@ -3221,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>3</v>
       </c>
@@ -3238,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>3</v>
       </c>
@@ -3255,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3</v>
       </c>
@@ -3272,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>3</v>
       </c>
@@ -3289,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3</v>
       </c>
@@ -3306,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3</v>
       </c>
@@ -3323,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>3</v>
       </c>
@@ -3340,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>3</v>
       </c>
@@ -3357,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3</v>
       </c>
@@ -3374,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>3</v>
       </c>
@@ -3391,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>3</v>
       </c>
@@ -3408,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>3</v>
       </c>
@@ -3425,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>3</v>
       </c>
@@ -3442,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>3</v>
       </c>
@@ -3459,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3</v>
       </c>
@@ -3476,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3</v>
       </c>
@@ -3493,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>3</v>
       </c>
@@ -3510,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>3</v>
       </c>
@@ -3527,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3</v>
       </c>
@@ -3544,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>3</v>
       </c>
@@ -3561,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3</v>
       </c>
@@ -3578,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>3</v>
       </c>
@@ -3595,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>3</v>
       </c>
@@ -3612,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>3</v>
       </c>
@@ -3629,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>3</v>
       </c>
@@ -3646,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>3</v>
       </c>
@@ -3663,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3</v>
       </c>
@@ -3680,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>3</v>
       </c>
@@ -3697,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>3</v>
       </c>
@@ -3714,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>3</v>
       </c>
@@ -3731,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>3</v>
       </c>
@@ -3748,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3</v>
       </c>
@@ -3765,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>3</v>
       </c>
@@ -3782,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>3</v>
       </c>
@@ -3799,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>3</v>
       </c>
@@ -3816,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3</v>
       </c>
@@ -3833,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>3</v>
       </c>
@@ -3850,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>3</v>
       </c>
@@ -3867,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3</v>
       </c>
@@ -3884,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>3</v>
       </c>
@@ -3901,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>3</v>
       </c>
@@ -3918,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>3</v>
       </c>
@@ -3935,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>3</v>
       </c>
@@ -3952,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>3</v>
       </c>
@@ -3969,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>3</v>
       </c>
@@ -3986,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>3</v>
       </c>
@@ -4003,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>3</v>
       </c>
@@ -4020,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>3</v>
       </c>
@@ -4037,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8</v>
       </c>
@@ -4054,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>8</v>
       </c>
@@ -4071,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>8</v>
       </c>
@@ -4088,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>8</v>
       </c>
@@ -4105,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>8</v>
       </c>
@@ -4122,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8</v>
       </c>
@@ -4139,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8</v>
       </c>
@@ -4156,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>8</v>
       </c>
@@ -4173,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>8</v>
       </c>
@@ -4190,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>8</v>
       </c>
@@ -4207,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>8</v>
       </c>
@@ -4224,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>8</v>
       </c>
@@ -4241,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>8</v>
       </c>
@@ -4258,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>8</v>
       </c>
@@ -4275,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>8</v>
       </c>
@@ -4292,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>8</v>
       </c>
@@ -4309,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>8</v>
       </c>
@@ -4326,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>8</v>
       </c>
@@ -4343,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>8</v>
       </c>
@@ -4360,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>8</v>
       </c>
@@ -4377,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>8</v>
       </c>
@@ -4394,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>8</v>
       </c>
@@ -4411,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>8</v>
       </c>
@@ -4428,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>8</v>
       </c>
@@ -4445,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>8</v>
       </c>
@@ -4462,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>8</v>
       </c>
@@ -4479,7 +4665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>8</v>
       </c>
@@ -4496,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>8</v>
       </c>
@@ -4513,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>8</v>
       </c>
@@ -4530,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>8</v>
       </c>
@@ -4547,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>8</v>
       </c>
@@ -4564,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>8</v>
       </c>
@@ -4581,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>8</v>
       </c>
@@ -4598,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>8</v>
       </c>
@@ -4615,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>8</v>
       </c>
@@ -4632,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>8</v>
       </c>
@@ -4649,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>8</v>
       </c>
@@ -4666,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>8</v>
       </c>
@@ -4683,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>8</v>
       </c>
@@ -4700,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>8</v>
       </c>
@@ -4717,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>8</v>
       </c>
@@ -4734,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>8</v>
       </c>
@@ -4751,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>8</v>
       </c>
@@ -4768,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>8</v>
       </c>
@@ -4785,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>8</v>
       </c>
@@ -4802,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>8</v>
       </c>
@@ -4819,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>8</v>
       </c>
@@ -4836,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>8</v>
       </c>
@@ -4853,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>8</v>
       </c>
@@ -4870,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>8</v>
       </c>
@@ -4887,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>8</v>
       </c>
@@ -4904,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>8</v>
       </c>
@@ -4921,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>8</v>
       </c>
@@ -4938,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>8</v>
       </c>
@@ -4955,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>8</v>
       </c>
@@ -4972,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>8</v>
       </c>
@@ -4989,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>12</v>
       </c>
@@ -5006,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>12</v>
       </c>
@@ -5023,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>12</v>
       </c>
@@ -5040,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>12</v>
       </c>
@@ -5057,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>12</v>
       </c>
@@ -5074,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>12</v>
       </c>
@@ -5091,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>12</v>
       </c>
@@ -5108,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>12</v>
       </c>
@@ -5125,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>12</v>
       </c>
@@ -5142,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>12</v>
       </c>
@@ -5159,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>12</v>
       </c>
@@ -5176,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>12</v>
       </c>
@@ -5193,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>12</v>
       </c>
@@ -5210,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>12</v>
       </c>
@@ -5227,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>12</v>
       </c>
@@ -5244,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>12</v>
       </c>
@@ -5261,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>12</v>
       </c>
@@ -5278,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>12</v>
       </c>
@@ -5295,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>12</v>
       </c>
@@ -5312,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>12</v>
       </c>
@@ -5329,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>12</v>
       </c>
@@ -5346,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>12</v>
       </c>
@@ -5363,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>12</v>
       </c>
@@ -5380,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>12</v>
       </c>
@@ -5397,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>12</v>
       </c>
@@ -5414,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>12</v>
       </c>
@@ -5431,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>12</v>
       </c>
@@ -5448,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>12</v>
       </c>
@@ -5465,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>12</v>
       </c>
@@ -5482,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>12</v>
       </c>
@@ -5499,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>12</v>
       </c>
@@ -5516,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>12</v>
       </c>
@@ -5533,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>12</v>
       </c>
@@ -5550,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>12</v>
       </c>
@@ -5567,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>12</v>
       </c>
@@ -5584,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>27</v>
       </c>
@@ -5601,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>27</v>
       </c>
@@ -5618,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>27</v>
       </c>
@@ -5635,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>27</v>
       </c>
@@ -5652,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>27</v>
       </c>
@@ -5669,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>27</v>
       </c>
@@ -5686,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>27</v>
       </c>
@@ -5703,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>27</v>
       </c>
@@ -5720,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>27</v>
       </c>
@@ -5737,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>27</v>
       </c>
@@ -5754,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>27</v>
       </c>
@@ -5771,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>27</v>
       </c>
@@ -5788,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>27</v>
       </c>
@@ -5805,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>27</v>
       </c>
@@ -5822,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>27</v>
       </c>
@@ -5839,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>27</v>
       </c>
@@ -5856,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>27</v>
       </c>
@@ -5873,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>27</v>
       </c>
@@ -5890,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>27</v>
       </c>
@@ -5907,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>27</v>
       </c>
@@ -5924,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>28</v>
       </c>
@@ -5941,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>28</v>
       </c>
@@ -5958,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>28</v>
       </c>
@@ -5975,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>28</v>
       </c>
@@ -5992,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>28</v>
       </c>
@@ -6009,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>28</v>
       </c>
@@ -6026,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>28</v>
       </c>
@@ -6043,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>28</v>
       </c>
@@ -6060,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>28</v>
       </c>
@@ -6077,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>28</v>
       </c>
@@ -6094,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>31</v>
       </c>
@@ -6111,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>31</v>
       </c>
@@ -6128,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>31</v>
       </c>
@@ -6145,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>31</v>
       </c>
@@ -6162,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>34</v>
       </c>
@@ -6179,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3</v>
       </c>
@@ -6199,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3</v>
       </c>
@@ -6219,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>3</v>
       </c>
@@ -6239,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>3</v>
       </c>
@@ -6259,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>3</v>
       </c>
@@ -6279,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>3</v>
       </c>
@@ -6299,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>3</v>
       </c>
@@ -6319,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3</v>
       </c>
@@ -6339,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>3</v>
       </c>
@@ -6359,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>3</v>
       </c>
@@ -6379,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>3</v>
       </c>
@@ -6399,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>3</v>
       </c>
@@ -6419,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>3</v>
       </c>
@@ -6439,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>3</v>
       </c>
@@ -6459,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>3</v>
       </c>
@@ -6479,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>3</v>
       </c>
@@ -6499,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>3</v>
       </c>
@@ -6519,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>3</v>
       </c>
@@ -6539,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>3</v>
       </c>
@@ -6559,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>3</v>
       </c>
@@ -6579,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3</v>
       </c>
@@ -6599,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3</v>
       </c>
@@ -6619,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>3</v>
       </c>
@@ -6639,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>3</v>
       </c>
@@ -6659,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>3</v>
       </c>
@@ -6679,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>3</v>
       </c>
@@ -6699,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>3</v>
       </c>
@@ -6719,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>3</v>
       </c>
@@ -6739,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>3</v>
       </c>
@@ -6759,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>3</v>
       </c>
@@ -6779,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>3</v>
       </c>
@@ -6799,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>3</v>
       </c>
@@ -6819,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>3</v>
       </c>
@@ -6839,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>3</v>
       </c>
@@ -6859,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>3</v>
       </c>
@@ -6879,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>3</v>
       </c>
@@ -6899,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>3</v>
       </c>
@@ -6919,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>3</v>
       </c>
@@ -6939,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>3</v>
       </c>
@@ -6959,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>3</v>
       </c>
@@ -6979,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3</v>
       </c>
@@ -6999,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3</v>
       </c>
@@ -7019,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>3</v>
       </c>
@@ -7039,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>3</v>
       </c>
@@ -7059,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>3</v>
       </c>
@@ -7079,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>3</v>
       </c>
@@ -7099,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>3</v>
       </c>
@@ -7119,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>3</v>
       </c>
@@ -7139,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>3</v>
       </c>
@@ -7159,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>3</v>
       </c>
@@ -7179,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>3</v>
       </c>
@@ -7199,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>3</v>
       </c>
@@ -7219,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>3</v>
       </c>
@@ -7239,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>3</v>
       </c>
@@ -7259,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>3</v>
       </c>
@@ -7279,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>3</v>
       </c>
@@ -7299,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>3</v>
       </c>
@@ -7319,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>3</v>
       </c>
@@ -7339,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>3</v>
       </c>
@@ -7359,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>3</v>
       </c>
@@ -7379,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>3</v>
       </c>
@@ -7399,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3</v>
       </c>
@@ -7419,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>3</v>
       </c>
@@ -7439,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>3</v>
       </c>
@@ -7459,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>3</v>
       </c>
@@ -7479,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>3</v>
       </c>
@@ -7499,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>3</v>
       </c>
@@ -7519,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>3</v>
       </c>
@@ -7539,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>3</v>
       </c>
@@ -7559,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>3</v>
       </c>
@@ -7579,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>3</v>
       </c>
@@ -7599,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>3</v>
       </c>
@@ -7619,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>3</v>
       </c>
@@ -7639,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>3</v>
       </c>
@@ -7659,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>3</v>
       </c>
@@ -7679,7 +7865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>3</v>
       </c>
@@ -7699,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>3</v>
       </c>
@@ -7719,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>3</v>
       </c>
@@ -7739,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>3</v>
       </c>
@@ -7759,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>3</v>
       </c>
@@ -7779,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3</v>
       </c>
@@ -7799,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3</v>
       </c>
@@ -7819,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>3</v>
       </c>
@@ -7839,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>3</v>
       </c>
@@ -7859,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>3</v>
       </c>
@@ -7879,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>3</v>
       </c>
@@ -7899,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>3</v>
       </c>
@@ -7919,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>3</v>
       </c>
@@ -7939,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>3</v>
       </c>
@@ -7959,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>3</v>
       </c>
@@ -7979,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>3</v>
       </c>
@@ -7999,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>3</v>
       </c>
@@ -8019,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>3</v>
       </c>
@@ -8039,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>3</v>
       </c>
@@ -8059,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>3</v>
       </c>
@@ -8079,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>3</v>
       </c>
@@ -8099,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>3</v>
       </c>
@@ -8119,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>3</v>
       </c>
@@ -8139,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>3</v>
       </c>
@@ -8159,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>3</v>
       </c>
@@ -8179,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>3</v>
       </c>
@@ -8199,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>3</v>
       </c>
@@ -8219,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>3</v>
       </c>
@@ -8239,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>3</v>
       </c>
@@ -8259,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>3</v>
       </c>
@@ -8279,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>3</v>
       </c>
@@ -8299,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>3</v>
       </c>
@@ -8319,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>3</v>
       </c>
@@ -8339,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>3</v>
       </c>
@@ -8359,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>3</v>
       </c>
@@ -8379,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>3</v>
       </c>
@@ -8399,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>3</v>
       </c>
@@ -8419,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>3</v>
       </c>
@@ -8439,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>3</v>
       </c>
@@ -8459,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>3</v>
       </c>
@@ -8479,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>3</v>
       </c>
@@ -8499,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>3</v>
       </c>
@@ -8519,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>3</v>
       </c>
@@ -8539,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>3</v>
       </c>
@@ -8559,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>3</v>
       </c>
@@ -8579,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>3</v>
       </c>
@@ -8599,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>3</v>
       </c>
@@ -8619,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>3</v>
       </c>
@@ -8639,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>3</v>
       </c>
@@ -8659,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>3</v>
       </c>
@@ -8679,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>3</v>
       </c>
@@ -8699,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>8</v>
       </c>
@@ -8719,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>8</v>
       </c>
@@ -8739,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>8</v>
       </c>
@@ -8759,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>8</v>
       </c>
@@ -8779,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>8</v>
       </c>
@@ -8799,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>8</v>
       </c>
@@ -8819,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>8</v>
       </c>
@@ -8839,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>8</v>
       </c>
@@ -8859,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>8</v>
       </c>
@@ -8879,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>8</v>
       </c>
@@ -8899,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>8</v>
       </c>
@@ -8919,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>8</v>
       </c>
@@ -8939,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>8</v>
       </c>
@@ -8959,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>8</v>
       </c>
@@ -8979,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>8</v>
       </c>
@@ -8999,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>8</v>
       </c>
@@ -9019,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>8</v>
       </c>
@@ -9039,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>8</v>
       </c>
@@ -9059,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>8</v>
       </c>
@@ -9079,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>8</v>
       </c>
@@ -9099,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>8</v>
       </c>
@@ -9119,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>8</v>
       </c>
@@ -9139,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>8</v>
       </c>
@@ -9159,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>8</v>
       </c>
@@ -9179,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>8</v>
       </c>
@@ -9199,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>8</v>
       </c>
@@ -9219,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>8</v>
       </c>
@@ -9239,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>8</v>
       </c>
@@ -9259,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>8</v>
       </c>
@@ -9279,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>8</v>
       </c>
@@ -9299,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>8</v>
       </c>
@@ -9319,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>8</v>
       </c>
@@ -9339,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>8</v>
       </c>
@@ -9359,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>8</v>
       </c>
@@ -9379,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>8</v>
       </c>
@@ -9399,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>8</v>
       </c>
@@ -9419,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>8</v>
       </c>
@@ -9439,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>8</v>
       </c>
@@ -9459,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>8</v>
       </c>
@@ -9479,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>8</v>
       </c>
@@ -9499,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>8</v>
       </c>
@@ -9519,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>8</v>
       </c>
@@ -9539,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>8</v>
       </c>
@@ -9559,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>8</v>
       </c>
@@ -9579,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>8</v>
       </c>
@@ -9599,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>8</v>
       </c>
@@ -9619,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>8</v>
       </c>
@@ -9639,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>8</v>
       </c>
@@ -9659,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>8</v>
       </c>
@@ -9679,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>8</v>
       </c>
@@ -9699,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>8</v>
       </c>
@@ -9719,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>8</v>
       </c>
@@ -9739,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>8</v>
       </c>
@@ -9759,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>8</v>
       </c>
@@ -9779,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>8</v>
       </c>
@@ -9799,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>8</v>
       </c>
@@ -9819,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>8</v>
       </c>
@@ -9839,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>8</v>
       </c>
@@ -9859,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>8</v>
       </c>
@@ -9879,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>8</v>
       </c>
@@ -9899,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>8</v>
       </c>
@@ -9919,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>8</v>
       </c>
@@ -9939,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>8</v>
       </c>
@@ -9959,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>8</v>
       </c>
@@ -9979,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>8</v>
       </c>
@@ -9999,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>8</v>
       </c>
@@ -10019,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>8</v>
       </c>
@@ -10039,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>8</v>
       </c>
@@ -10059,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>8</v>
       </c>
@@ -10079,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>8</v>
       </c>
@@ -10099,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>12</v>
       </c>
@@ -10119,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>12</v>
       </c>
@@ -10139,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>12</v>
       </c>
@@ -10159,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>12</v>
       </c>
@@ -10179,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>12</v>
       </c>
@@ -10199,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>12</v>
       </c>
@@ -10219,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>12</v>
       </c>
@@ -10239,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>12</v>
       </c>
@@ -10259,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>12</v>
       </c>
@@ -10279,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>12</v>
       </c>
@@ -10299,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>12</v>
       </c>
@@ -10319,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>12</v>
       </c>
@@ -10339,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>12</v>
       </c>
@@ -10359,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>12</v>
       </c>
@@ -10379,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>12</v>
       </c>
@@ -10399,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>12</v>
       </c>
@@ -10419,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>12</v>
       </c>
@@ -10439,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>12</v>
       </c>
@@ -10459,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>12</v>
       </c>
@@ -10479,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>12</v>
       </c>
@@ -10499,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>12</v>
       </c>
@@ -10519,7 +10705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>12</v>
       </c>
@@ -10539,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>12</v>
       </c>
@@ -10559,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>12</v>
       </c>
@@ -10579,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>12</v>
       </c>
@@ -10599,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>12</v>
       </c>
@@ -10619,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>12</v>
       </c>
@@ -10639,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>12</v>
       </c>
@@ -10659,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>12</v>
       </c>
@@ -10679,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>12</v>
       </c>
@@ -10699,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>12</v>
       </c>
@@ -10719,7 +10905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>12</v>
       </c>
@@ -10739,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>12</v>
       </c>
@@ -10759,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>12</v>
       </c>
@@ -10779,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>12</v>
       </c>
@@ -10799,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>27</v>
       </c>
@@ -10819,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>27</v>
       </c>
@@ -10839,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>27</v>
       </c>
@@ -10859,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>27</v>
       </c>
@@ -10879,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>27</v>
       </c>
@@ -10899,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>27</v>
       </c>
@@ -10919,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>27</v>
       </c>
@@ -10939,7 +11125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>27</v>
       </c>
@@ -10959,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>27</v>
       </c>
@@ -10979,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>27</v>
       </c>
@@ -10999,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>27</v>
       </c>
@@ -11019,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>27</v>
       </c>
@@ -11039,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>27</v>
       </c>
@@ -11059,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>27</v>
       </c>
@@ -11079,7 +11265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>27</v>
       </c>
@@ -11099,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>28</v>
       </c>
@@ -11119,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>28</v>
       </c>
@@ -11139,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>28</v>
       </c>
@@ -11159,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>28</v>
       </c>
@@ -11179,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>28</v>
       </c>
@@ -11199,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>31</v>
       </c>
@@ -11219,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>3</v>
       </c>
@@ -11242,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>3</v>
       </c>
@@ -11265,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>3</v>
       </c>
@@ -11288,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>3</v>
       </c>
@@ -11311,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>3</v>
       </c>
@@ -11334,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>3</v>
       </c>
@@ -11357,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>3</v>
       </c>
@@ -11380,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>3</v>
       </c>
@@ -11403,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>3</v>
       </c>
@@ -11426,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>3</v>
       </c>
@@ -11449,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>3</v>
       </c>
@@ -11472,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>3</v>
       </c>
@@ -11495,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>3</v>
       </c>
@@ -11518,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>3</v>
       </c>
@@ -11541,7 +11727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>3</v>
       </c>
@@ -11564,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>3</v>
       </c>
@@ -11587,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>3</v>
       </c>
@@ -11610,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>3</v>
       </c>
@@ -11633,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>3</v>
       </c>
@@ -11656,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>3</v>
       </c>
@@ -11679,7 +11865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>3</v>
       </c>
@@ -11702,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>3</v>
       </c>
@@ -11725,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>3</v>
       </c>
@@ -11748,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>3</v>
       </c>
@@ -11771,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>3</v>
       </c>
@@ -11794,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>3</v>
       </c>
@@ -11817,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>3</v>
       </c>
@@ -11840,7 +12026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>3</v>
       </c>
@@ -11863,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>3</v>
       </c>
@@ -11886,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>3</v>
       </c>
@@ -11909,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>3</v>
       </c>
@@ -11932,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>3</v>
       </c>
@@ -11955,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>3</v>
       </c>
@@ -11978,7 +12164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>3</v>
       </c>
@@ -12001,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>3</v>
       </c>
@@ -12024,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>3</v>
       </c>
@@ -12047,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>3</v>
       </c>
@@ -12070,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>3</v>
       </c>
@@ -12093,7 +12279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>3</v>
       </c>
@@ -12116,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>3</v>
       </c>
@@ -12139,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>3</v>
       </c>
@@ -12162,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>3</v>
       </c>
@@ -12185,7 +12371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>3</v>
       </c>
@@ -12208,7 +12394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>3</v>
       </c>
@@ -12231,7 +12417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>3</v>
       </c>
@@ -12254,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>3</v>
       </c>
@@ -12277,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>3</v>
       </c>
@@ -12300,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>3</v>
       </c>
@@ -12323,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>3</v>
       </c>
@@ -12346,7 +12532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>3</v>
       </c>
@@ -12369,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>3</v>
       </c>
@@ -12392,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>3</v>
       </c>
@@ -12415,7 +12601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>3</v>
       </c>
@@ -12438,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>3</v>
       </c>
@@ -12461,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>3</v>
       </c>
@@ -12484,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>3</v>
       </c>
@@ -12507,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>3</v>
       </c>
@@ -12530,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>3</v>
       </c>
@@ -12553,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>3</v>
       </c>
@@ -12576,7 +12762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>3</v>
       </c>
@@ -12599,7 +12785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>3</v>
       </c>
@@ -12622,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>3</v>
       </c>
@@ -12645,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>3</v>
       </c>
@@ -12668,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>3</v>
       </c>
@@ -12691,7 +12877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>3</v>
       </c>
@@ -12714,7 +12900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:7">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>3</v>
       </c>
@@ -12737,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>3</v>
       </c>
@@ -12760,7 +12946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>3</v>
       </c>
@@ -12783,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>3</v>
       </c>
@@ -12806,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>3</v>
       </c>
@@ -12829,7 +13015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>3</v>
       </c>
@@ -12852,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>3</v>
       </c>
@@ -12875,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>3</v>
       </c>
@@ -12898,7 +13084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>3</v>
       </c>
@@ -12921,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>3</v>
       </c>
@@ -12944,7 +13130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>3</v>
       </c>
@@ -12967,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>3</v>
       </c>
@@ -12990,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>3</v>
       </c>
@@ -13013,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>3</v>
       </c>
@@ -13036,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>3</v>
       </c>
@@ -13059,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>3</v>
       </c>
@@ -13082,7 +13268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>3</v>
       </c>
@@ -13105,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>3</v>
       </c>
@@ -13128,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:7">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>3</v>
       </c>
@@ -13151,7 +13337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:7">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>3</v>
       </c>
@@ -13174,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:7">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>3</v>
       </c>
@@ -13197,7 +13383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:7">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>3</v>
       </c>
@@ -13220,7 +13406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:7">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>3</v>
       </c>
@@ -13243,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:7">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>3</v>
       </c>
@@ -13266,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:7">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>3</v>
       </c>
@@ -13289,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:7">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>3</v>
       </c>
@@ -13312,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:7">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>3</v>
       </c>
@@ -13335,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:7">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>3</v>
       </c>
@@ -13358,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:7">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>3</v>
       </c>
@@ -13381,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:7">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>3</v>
       </c>
@@ -13404,7 +13590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:7">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>3</v>
       </c>
@@ -13427,7 +13613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:7">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>3</v>
       </c>
@@ -13450,7 +13636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:7">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>3</v>
       </c>
@@ -13473,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:7">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>3</v>
       </c>
@@ -13496,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:7">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>3</v>
       </c>
@@ -13519,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:7">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>3</v>
       </c>
@@ -13542,7 +13728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:7">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>3</v>
       </c>
@@ -13565,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:7">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>3</v>
       </c>
@@ -13588,7 +13774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:7">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>3</v>
       </c>
@@ -13611,7 +13797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:7">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>3</v>
       </c>
@@ -13634,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:7">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>3</v>
       </c>
@@ -13657,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:7">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>3</v>
       </c>
@@ -13680,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:7">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>3</v>
       </c>
@@ -13703,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:7">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>3</v>
       </c>
@@ -13726,7 +13912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:7">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>3</v>
       </c>
@@ -13749,7 +13935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:7">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>3</v>
       </c>
@@ -13772,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:7">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>3</v>
       </c>
@@ -13795,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:7">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>3</v>
       </c>
@@ -13818,7 +14004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:7">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>3</v>
       </c>
@@ -13841,7 +14027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:7">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>3</v>
       </c>
@@ -13864,7 +14050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:7">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>3</v>
       </c>
@@ -13887,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:7">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>3</v>
       </c>
@@ -13910,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:7">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>3</v>
       </c>
@@ -13933,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:7">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>3</v>
       </c>
@@ -13956,7 +14142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:7">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>3</v>
       </c>
@@ -13979,7 +14165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:7">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>3</v>
       </c>
@@ -14002,7 +14188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:7">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>3</v>
       </c>
@@ -14025,7 +14211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:7">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>3</v>
       </c>
@@ -14048,7 +14234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:7">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>3</v>
       </c>
@@ -14071,7 +14257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:7">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>3</v>
       </c>
@@ -14094,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:7">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>3</v>
       </c>
@@ -14117,7 +14303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:7">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>8</v>
       </c>
@@ -14140,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:7">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>8</v>
       </c>
@@ -14163,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:7">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>8</v>
       </c>
@@ -14186,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:7">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>8</v>
       </c>
@@ -14209,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:7">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>8</v>
       </c>
@@ -14232,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:7">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>8</v>
       </c>
@@ -14255,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:7">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>8</v>
       </c>
@@ -14278,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:7">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>8</v>
       </c>
@@ -14301,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:7">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>8</v>
       </c>
@@ -14324,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:7">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>8</v>
       </c>
@@ -14347,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:7">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>8</v>
       </c>
@@ -14370,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:7">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>8</v>
       </c>
@@ -14393,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:7">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>8</v>
       </c>
@@ -14416,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:7">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>8</v>
       </c>
@@ -14439,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:7">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>8</v>
       </c>
@@ -14462,7 +14648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:7">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>8</v>
       </c>
@@ -14485,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:7">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>8</v>
       </c>
@@ -14508,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:7">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>8</v>
       </c>
@@ -14531,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:7">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>8</v>
       </c>
@@ -14554,7 +14740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:7">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>8</v>
       </c>
@@ -14577,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:7">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>8</v>
       </c>
@@ -14600,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:7">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>8</v>
       </c>
@@ -14623,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:7">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>8</v>
       </c>
@@ -14646,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:7">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>8</v>
       </c>
@@ -14669,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:7">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>8</v>
       </c>
@@ -14692,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:7">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>8</v>
       </c>
@@ -14715,7 +14901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:7">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>8</v>
       </c>
@@ -14738,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:7">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>8</v>
       </c>
@@ -14761,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:7">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>8</v>
       </c>
@@ -14784,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:7">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>8</v>
       </c>
@@ -14807,7 +14993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:7">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>8</v>
       </c>
@@ -14830,7 +15016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:7">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>8</v>
       </c>
@@ -14853,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:7">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>8</v>
       </c>
@@ -14876,7 +15062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:7">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>8</v>
       </c>
@@ -14899,7 +15085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:7">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>8</v>
       </c>
@@ -14922,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:7">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>8</v>
       </c>
@@ -14945,7 +15131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:7">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>8</v>
       </c>
@@ -14968,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:7">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>8</v>
       </c>
@@ -14991,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:7">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>8</v>
       </c>
@@ -15014,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:7">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>8</v>
       </c>
@@ -15037,7 +15223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:7">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>8</v>
       </c>
@@ -15060,7 +15246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:7">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>8</v>
       </c>
@@ -15083,7 +15269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:7">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>8</v>
       </c>
@@ -15106,7 +15292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:7">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>8</v>
       </c>
@@ -15129,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:7">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>8</v>
       </c>
@@ -15152,7 +15338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:7">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>8</v>
       </c>
@@ -15175,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:7">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>8</v>
       </c>
@@ -15198,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:7">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>8</v>
       </c>
@@ -15221,7 +15407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:7">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>8</v>
       </c>
@@ -15244,7 +15430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:7">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>8</v>
       </c>
@@ -15267,7 +15453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:7">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>8</v>
       </c>
@@ -15290,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:7">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>8</v>
       </c>
@@ -15313,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:7">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>8</v>
       </c>
@@ -15336,7 +15522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:7">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>8</v>
       </c>
@@ -15359,7 +15545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:7">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>8</v>
       </c>
@@ -15382,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:7">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>8</v>
       </c>
@@ -15405,7 +15591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:7">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>12</v>
       </c>
@@ -15428,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:7">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>12</v>
       </c>
@@ -15451,7 +15637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:7">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>12</v>
       </c>
@@ -15474,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:7">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>12</v>
       </c>
@@ -15497,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:7">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>12</v>
       </c>
@@ -15520,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:7">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>12</v>
       </c>
@@ -15543,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:7">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>12</v>
       </c>
@@ -15566,7 +15752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:7">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>12</v>
       </c>
@@ -15589,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:7">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>12</v>
       </c>
@@ -15612,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:7">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>12</v>
       </c>
@@ -15635,7 +15821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:7">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>12</v>
       </c>
@@ -15658,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:7">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>12</v>
       </c>
@@ -15681,7 +15867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:7">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>12</v>
       </c>
@@ -15704,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>12</v>
       </c>
@@ -15727,7 +15913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>12</v>
       </c>
@@ -15750,7 +15936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>12</v>
       </c>
@@ -15773,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>12</v>
       </c>
@@ -15796,7 +15982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>12</v>
       </c>
@@ -15819,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>12</v>
       </c>
@@ -15842,7 +16028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>12</v>
       </c>
@@ -15865,7 +16051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>12</v>
       </c>
@@ -15888,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>27</v>
       </c>
@@ -15911,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>27</v>
       </c>
@@ -15934,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>27</v>
       </c>
@@ -15957,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>27</v>
       </c>
@@ -15980,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>27</v>
       </c>
@@ -16003,7 +16189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>27</v>
       </c>
@@ -16026,7 +16212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>28</v>
       </c>
@@ -16049,7 +16235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>3</v>
       </c>
@@ -16075,7 +16261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>3</v>
       </c>
@@ -16101,7 +16287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>3</v>
       </c>
@@ -16127,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>3</v>
       </c>
@@ -16153,7 +16339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>3</v>
       </c>
@@ -16179,7 +16365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>3</v>
       </c>
@@ -16205,7 +16391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>3</v>
       </c>
@@ -16231,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>3</v>
       </c>
@@ -16257,7 +16443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>3</v>
       </c>
@@ -16283,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>3</v>
       </c>
@@ -16309,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>3</v>
       </c>
@@ -16335,7 +16521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>3</v>
       </c>
@@ -16361,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>3</v>
       </c>
@@ -16387,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>3</v>
       </c>
@@ -16413,7 +16599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:8">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>3</v>
       </c>
@@ -16439,7 +16625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:8">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>3</v>
       </c>
@@ -16465,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:8">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>3</v>
       </c>
@@ -16491,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>3</v>
       </c>
@@ -16517,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>3</v>
       </c>
@@ -16543,7 +16729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>3</v>
       </c>
@@ -16569,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>3</v>
       </c>
@@ -16595,7 +16781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>3</v>
       </c>
@@ -16621,7 +16807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>3</v>
       </c>
@@ -16647,7 +16833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>3</v>
       </c>
@@ -16673,7 +16859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>3</v>
       </c>
@@ -16699,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>3</v>
       </c>
@@ -16725,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>3</v>
       </c>
@@ -16751,7 +16937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>3</v>
       </c>
@@ -16777,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>3</v>
       </c>
@@ -16803,7 +16989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>3</v>
       </c>
@@ -16829,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>3</v>
       </c>
@@ -16855,7 +17041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>3</v>
       </c>
@@ -16881,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>3</v>
       </c>
@@ -16907,7 +17093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>3</v>
       </c>
@@ -16933,7 +17119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>3</v>
       </c>
@@ -16959,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>3</v>
       </c>
@@ -16985,7 +17171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>3</v>
       </c>
@@ -17011,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>3</v>
       </c>
@@ -17037,7 +17223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>3</v>
       </c>
@@ -17063,7 +17249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>3</v>
       </c>
@@ -17089,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>3</v>
       </c>
@@ -17115,7 +17301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>3</v>
       </c>
@@ -17141,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>3</v>
       </c>
@@ -17167,7 +17353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>3</v>
       </c>
@@ -17193,7 +17379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>3</v>
       </c>
@@ -17219,7 +17405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>3</v>
       </c>
@@ -17245,7 +17431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>3</v>
       </c>
@@ -17271,7 +17457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>3</v>
       </c>
@@ -17297,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>3</v>
       </c>
@@ -17323,7 +17509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>3</v>
       </c>
@@ -17349,7 +17535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>3</v>
       </c>
@@ -17375,7 +17561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:8">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>3</v>
       </c>
@@ -17401,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:8">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>3</v>
       </c>
@@ -17427,7 +17613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:8">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>3</v>
       </c>
@@ -17453,7 +17639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>3</v>
       </c>
@@ -17479,7 +17665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:8">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>3</v>
       </c>
@@ -17505,7 +17691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>3</v>
       </c>
@@ -17531,7 +17717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>3</v>
       </c>
@@ -17557,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>3</v>
       </c>
@@ -17583,7 +17769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>3</v>
       </c>
@@ -17609,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>3</v>
       </c>
@@ -17635,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>3</v>
       </c>
@@ -17661,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>3</v>
       </c>
@@ -17687,7 +17873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>3</v>
       </c>
@@ -17713,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>3</v>
       </c>
@@ -17739,7 +17925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>3</v>
       </c>
@@ -17765,7 +17951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>3</v>
       </c>
@@ -17791,7 +17977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>3</v>
       </c>
@@ -17817,7 +18003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>3</v>
       </c>
@@ -17843,7 +18029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>3</v>
       </c>
@@ -17869,7 +18055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>3</v>
       </c>
@@ -17895,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>3</v>
       </c>
@@ -17921,7 +18107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>3</v>
       </c>
@@ -17947,7 +18133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>3</v>
       </c>
@@ -17973,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>3</v>
       </c>
@@ -17999,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>3</v>
       </c>
@@ -18025,7 +18211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>3</v>
       </c>
@@ -18051,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>3</v>
       </c>
@@ -18077,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>3</v>
       </c>
@@ -18103,7 +18289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>3</v>
       </c>
@@ -18129,7 +18315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>3</v>
       </c>
@@ -18155,7 +18341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>3</v>
       </c>
@@ -18181,7 +18367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>3</v>
       </c>
@@ -18207,7 +18393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>3</v>
       </c>
@@ -18233,7 +18419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>8</v>
       </c>
@@ -18259,7 +18445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>8</v>
       </c>
@@ -18285,7 +18471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>8</v>
       </c>
@@ -18311,7 +18497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>8</v>
       </c>
@@ -18337,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:8">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>8</v>
       </c>
@@ -18363,7 +18549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:8">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>8</v>
       </c>
@@ -18389,7 +18575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:8">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>8</v>
       </c>
@@ -18415,7 +18601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:8">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>8</v>
       </c>
@@ -18441,7 +18627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:8">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>8</v>
       </c>
@@ -18467,7 +18653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:8">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>8</v>
       </c>
@@ -18493,7 +18679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:8">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>8</v>
       </c>
@@ -18519,7 +18705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:8">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>8</v>
       </c>
@@ -18545,7 +18731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:8">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>8</v>
       </c>
@@ -18571,7 +18757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:8">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>8</v>
       </c>
@@ -18597,7 +18783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>8</v>
       </c>
@@ -18623,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:8">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>8</v>
       </c>
@@ -18649,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:8">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>8</v>
       </c>
@@ -18675,7 +18861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:8">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>8</v>
       </c>
@@ -18701,7 +18887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:8">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>8</v>
       </c>
@@ -18727,7 +18913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:8">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>8</v>
       </c>
@@ -18753,7 +18939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:8">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>8</v>
       </c>
@@ -18779,7 +18965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:8">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>8</v>
       </c>
@@ -18805,7 +18991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:8">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>8</v>
       </c>
@@ -18831,7 +19017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:8">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>8</v>
       </c>
@@ -18857,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>8</v>
       </c>
@@ -18883,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:8">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>8</v>
       </c>
@@ -18909,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:8">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>8</v>
       </c>
@@ -18935,7 +19121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:8">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>8</v>
       </c>
@@ -18961,7 +19147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:8">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>12</v>
       </c>
@@ -18987,7 +19173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:9">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>12</v>
       </c>
@@ -19013,7 +19199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:9">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>12</v>
       </c>
@@ -19039,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:9">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>12</v>
       </c>
@@ -19065,7 +19251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:9">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>12</v>
       </c>
@@ -19091,7 +19277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:9">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>12</v>
       </c>
@@ -19117,7 +19303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:9">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>12</v>
       </c>
@@ -19143,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:9">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>27</v>
       </c>
@@ -19169,7 +19355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:9">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>3</v>
       </c>
@@ -19198,7 +19384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:9">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>3</v>
       </c>
@@ -19227,7 +19413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:9">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>3</v>
       </c>
@@ -19256,7 +19442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:9">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>3</v>
       </c>
@@ -19285,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:9">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>3</v>
       </c>
@@ -19314,7 +19500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:9">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>3</v>
       </c>
@@ -19343,7 +19529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:9">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>3</v>
       </c>
@@ -19372,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:9">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>3</v>
       </c>
@@ -19401,7 +19587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:9">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>3</v>
       </c>
@@ -19430,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:9">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>3</v>
       </c>
@@ -19459,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:9">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>3</v>
       </c>
@@ -19488,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:9">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>3</v>
       </c>
@@ -19517,7 +19703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:9">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>3</v>
       </c>
@@ -19546,7 +19732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:9">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>3</v>
       </c>
@@ -19575,7 +19761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:9">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>3</v>
       </c>
@@ -19604,7 +19790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:9">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>3</v>
       </c>
@@ -19633,7 +19819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:9">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>3</v>
       </c>
@@ -19662,7 +19848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:9">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>3</v>
       </c>
@@ -19691,7 +19877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:9">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>3</v>
       </c>
@@ -19720,7 +19906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:9">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>3</v>
       </c>
@@ -19749,7 +19935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:9">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>3</v>
       </c>
@@ -19778,7 +19964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:9">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>3</v>
       </c>
@@ -19807,7 +19993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:9">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>3</v>
       </c>
@@ -19836,7 +20022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:9">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>3</v>
       </c>
@@ -19865,7 +20051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:9">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>3</v>
       </c>
@@ -19894,7 +20080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:9">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>3</v>
       </c>
@@ -19923,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:9">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>3</v>
       </c>
@@ -19952,7 +20138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:9">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>3</v>
       </c>
@@ -19981,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:9">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>3</v>
       </c>
@@ -20010,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:9">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>3</v>
       </c>
@@ -20039,7 +20225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:9">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>3</v>
       </c>
@@ -20068,7 +20254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:9">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>3</v>
       </c>
@@ -20097,7 +20283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:9">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>3</v>
       </c>
@@ -20126,7 +20312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:9">
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>3</v>
       </c>
@@ -20155,7 +20341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:9">
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>3</v>
       </c>
@@ -20184,7 +20370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:9">
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>3</v>
       </c>
@@ -20213,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:9">
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>8</v>
       </c>
@@ -20242,7 +20428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:9">
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>8</v>
       </c>
@@ -20271,7 +20457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="1:9">
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>8</v>
       </c>
@@ -20300,7 +20486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:9">
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>8</v>
       </c>
@@ -20329,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" spans="1:9">
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>8</v>
       </c>
@@ -20358,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:11">
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>8</v>
       </c>
@@ -20387,7 +20573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:11">
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>8</v>
       </c>
@@ -20416,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:11">
+    <row r="1011" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>8</v>
       </c>
@@ -20445,7 +20631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="1:11">
+    <row r="1012" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>12</v>
       </c>
@@ -20474,7 +20660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="1:11">
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>3</v>
       </c>
@@ -20506,7 +20692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:11">
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>3</v>
       </c>
@@ -20538,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:11">
+    <row r="1015" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>3</v>
       </c>
@@ -20570,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1016" spans="1:11">
+    <row r="1016" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>3</v>
       </c>
@@ -20602,7 +20788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:11">
+    <row r="1017" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>3</v>
       </c>
@@ -20634,7 +20820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:11">
+    <row r="1018" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>3</v>
       </c>
@@ -20666,7 +20852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:11">
+    <row r="1019" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>3</v>
       </c>
@@ -20698,7 +20884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:11">
+    <row r="1020" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>3</v>
       </c>
@@ -20730,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:11">
+    <row r="1021" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>3</v>
       </c>
@@ -20762,7 +20948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:11">
+    <row r="1022" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>8</v>
       </c>
@@ -20794,7 +20980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="1:11">
+    <row r="1023" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>3</v>
       </c>
